--- a/2023 DeSales Memory Book (Responses).xlsx
+++ b/2023 DeSales Memory Book (Responses).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaron/Documents/Development/PythonCode/download_memorybook_photos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC7076F9-DB67-C54F-8998-7E41B0C18C83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77F73E44-1141-B940-A606-BF45F298A3A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-32120" yWindow="2700" windowWidth="27640" windowHeight="16940" xr2:uid="{63E4AD81-0D5A-954C-BCFC-0595539AB62A}"/>
   </bookViews>
@@ -744,7 +744,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:I12"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
